--- a/Moreno Aroyo Anél 20212.xlsx
+++ b/Moreno Aroyo Anél 20212.xlsx
@@ -3103,7 +3103,7 @@
         <v>232</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:11">
